--- a/DadosCommodities.xlsx
+++ b/DadosCommodities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Produto</t>
   </si>
@@ -43,6 +43,30 @@
     <t xml:space="preserve">  Paládio  </t>
   </si>
   <si>
+    <t>+1,91%</t>
+  </si>
+  <si>
+    <t>+0,91%</t>
+  </si>
+  <si>
+    <t>+1,2%</t>
+  </si>
+  <si>
+    <t>+4,28%</t>
+  </si>
+  <si>
+    <t>+4,66%</t>
+  </si>
+  <si>
+    <t>+1,93%</t>
+  </si>
+  <si>
+    <t>+0,78%</t>
+  </si>
+  <si>
+    <t>+4,33%</t>
+  </si>
+  <si>
     <t>+1,37%</t>
   </si>
   <si>
@@ -70,6 +94,36 @@
     <t>-1,52%</t>
   </si>
   <si>
+    <t xml:space="preserve"> US$ 75,390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1804,800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 22,830 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 967,500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1900,500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 75,420 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1802,800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 22,760 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 968,000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1897,500 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> US$ 72,510 </t>
   </si>
   <si>
@@ -98,6 +152,12 @@
   </si>
   <si>
     <t xml:space="preserve"> US$ 1751,500 </t>
+  </si>
+  <si>
+    <t>23/12/2021</t>
+  </si>
+  <si>
+    <t>22/12/2021</t>
   </si>
   <si>
     <t>21/12/2021</t>
@@ -461,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -503,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -517,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -531,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -545,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -559,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -573,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -584,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -598,13 +658,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -615,10 +675,150 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DadosCommodities.xlsx
+++ b/DadosCommodities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>Produto</t>
   </si>
@@ -43,6 +43,21 @@
     <t xml:space="preserve">  Paládio  </t>
   </si>
   <si>
+    <t>+0,34%</t>
+  </si>
+  <si>
+    <t>-0,18%</t>
+  </si>
+  <si>
+    <t>-1,17%</t>
+  </si>
+  <si>
+    <t>-2,09%</t>
+  </si>
+  <si>
+    <t>-1,08%</t>
+  </si>
+  <si>
     <t>+1,91%</t>
   </si>
   <si>
@@ -94,6 +109,21 @@
     <t>-1,52%</t>
   </si>
   <si>
+    <t xml:space="preserve"> US$ 76,410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1807,700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 22,760 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 954,700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US$ 1984,500 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> US$ 75,390 </t>
   </si>
   <si>
@@ -115,9 +145,6 @@
     <t xml:space="preserve"> US$ 1802,800 </t>
   </si>
   <si>
-    <t xml:space="preserve"> US$ 22,760 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> US$ 968,000 </t>
   </si>
   <si>
@@ -152,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve"> US$ 1751,500 </t>
+  </si>
+  <si>
+    <t>27/12/2021</t>
   </si>
   <si>
     <t>23/12/2021</t>
@@ -521,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -563,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -577,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -591,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -605,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -619,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -633,10 +663,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +674,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +688,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +702,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +758,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +772,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -759,10 +789,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -773,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -787,10 +817,10 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -801,10 +831,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +842,83 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
